--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,135 +46,168 @@
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -184,10 +217,10 @@
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>data</t>
@@ -202,7 +235,13 @@
     <t>sure</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -560,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -679,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9302325581395349</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,31 +786,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L5">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0.925</v>
-      </c>
-      <c r="L5">
-        <v>111</v>
-      </c>
-      <c r="M5">
-        <v>111</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L6">
+        <v>55</v>
+      </c>
+      <c r="M6">
+        <v>55</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L6">
-        <v>54</v>
-      </c>
-      <c r="M6">
-        <v>54</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.9056603773584906</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,16 +989,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8981723237597912</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L9">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7403100775193798</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>382</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>382</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>0.8837209302325582</v>
+      </c>
+      <c r="L11">
         <v>38</v>
       </c>
-      <c r="K11">
-        <v>0.8828125</v>
-      </c>
-      <c r="L11">
-        <v>113</v>
-      </c>
       <c r="M11">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.711864406779661</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8658536585365854</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7422480620155039</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.88125</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6862745098039216</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6375838926174496</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D15">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.851063829787234</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,38 +1318,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5636363636363636</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L16">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>31</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>0.84375</v>
-      </c>
-      <c r="L16">
-        <v>135</v>
-      </c>
-      <c r="M16">
-        <v>135</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1321,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5357142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8181818181818182</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.509090909090909</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5066666666666667</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.8103448275862069</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1479,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4777777777777778</v>
+        <v>0.5973154362416108</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4155844155844156</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7676470588235295</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L21">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.376984126984127</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7640449438202247</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2386058981233244</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7457627118644068</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,125 +1710,245 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.425</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>46</v>
+      </c>
       <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>0.7423728813559322</v>
+      </c>
+      <c r="L24">
+        <v>219</v>
+      </c>
+      <c r="M24">
+        <v>219</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.376984126984127</v>
+      </c>
+      <c r="C25">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>157</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.7303370786516854</v>
+      </c>
+      <c r="L25">
+        <v>65</v>
+      </c>
+      <c r="M25">
+        <v>65</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3376623376623377</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>51</v>
       </c>
-      <c r="K24">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L24">
-        <v>38</v>
-      </c>
-      <c r="M24">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.725</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.2680965147453083</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>273</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.7</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="C28">
         <v>52</v>
       </c>
-      <c r="K25">
-        <v>0.74</v>
-      </c>
-      <c r="L25">
-        <v>37</v>
-      </c>
-      <c r="M25">
-        <v>37</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L26">
-        <v>68</v>
-      </c>
-      <c r="M26">
-        <v>68</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.7230769230769231</v>
-      </c>
-      <c r="L27">
-        <v>47</v>
-      </c>
-      <c r="M27">
-        <v>47</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>248</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1801,21 +1960,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.0103126007089913</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0.11</v>
+      </c>
+      <c r="F29">
+        <v>0.89</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3071</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6736401673640168</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L29">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1827,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6444444444444445</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1858,16 +2041,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.6140350877192983</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1879,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.547945205479452</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1905,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1931,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.46875</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1957,33 +2140,215 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.008135168961201502</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L35">
         <v>26</v>
       </c>
       <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.6027397260273972</v>
+      </c>
+      <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.5897435897435898</v>
+      </c>
+      <c r="L38">
+        <v>46</v>
+      </c>
+      <c r="M38">
+        <v>46</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.546875</v>
+      </c>
+      <c r="L39">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>31</v>
       </c>
-      <c r="N35">
-        <v>0.84</v>
-      </c>
-      <c r="O35">
-        <v>0.16</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>3170</v>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.2897196261682243</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
